--- a/database/industries/shoyande/kimiatec/product/yearly_seprated.xlsx
+++ b/database/industries/shoyande/kimiatec/product/yearly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\kimiatec\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F232C49B-0120-4634-8308-4B2DABC9AC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کیمیاتک-آریان کیمیا تک</t>
@@ -168,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -361,7 +362,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -373,7 +374,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -420,6 +421,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -455,6 +473,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -606,7 +641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/shoyande/kimiatec/product/yearly_seprated.xlsx
+++ b/database/industries/shoyande/kimiatec/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F232C49B-0120-4634-8308-4B2DABC9AC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519C210C-0399-4888-B300-1A0136804C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -61,34 +61,34 @@
     <t>تعداد</t>
   </si>
   <si>
+    <t>بهداشتی</t>
+  </si>
+  <si>
+    <t>آرایشی</t>
+  </si>
+  <si>
+    <t>جمع فروش داخلی</t>
+  </si>
+  <si>
+    <t>مقدار فروش خارجی</t>
+  </si>
+  <si>
+    <t>جمع فروش خارجی</t>
+  </si>
+  <si>
+    <t>مقدار فروش درآمد ارائه خدمات</t>
+  </si>
+  <si>
+    <t>جمع فروش خدمات</t>
+  </si>
+  <si>
+    <t>برگشت از فروش</t>
+  </si>
+  <si>
+    <t>ریال</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>بهداشتی</t>
-  </si>
-  <si>
-    <t>آرایشی</t>
-  </si>
-  <si>
-    <t>جمع فروش داخلی</t>
-  </si>
-  <si>
-    <t>مقدار فروش خارجی</t>
-  </si>
-  <si>
-    <t>جمع فروش خارجی</t>
-  </si>
-  <si>
-    <t>مقدار فروش درآمد ارائه خدمات</t>
-  </si>
-  <si>
-    <t>جمع فروش خدمات</t>
-  </si>
-  <si>
-    <t>برگشت از فروش</t>
-  </si>
-  <si>
-    <t>ریال</t>
   </si>
   <si>
     <t>سایر / تخفیفات</t>
@@ -646,12 +646,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -661,7 +661,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -673,7 +673,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -685,7 +685,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -695,7 +695,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -729,7 +729,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -751,7 +751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -761,7 +761,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -773,7 +773,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -781,95 +781,95 @@
         <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11">
+        <v>10939538</v>
+      </c>
+      <c r="F11" s="11">
+        <v>13397617</v>
+      </c>
+      <c r="G11" s="11">
+        <v>15091140</v>
+      </c>
+      <c r="H11" s="11">
+        <v>13291929</v>
+      </c>
+      <c r="I11" s="11">
+        <v>15391449</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="11">
-        <v>10939538</v>
-      </c>
-      <c r="G11" s="11">
-        <v>13397617</v>
-      </c>
-      <c r="H11" s="11">
-        <v>15091140</v>
-      </c>
-      <c r="I11" s="11">
-        <v>13291929</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
+      <c r="E12" s="13">
+        <v>9205870</v>
       </c>
       <c r="F12" s="13">
-        <v>9205870</v>
+        <v>22217845</v>
       </c>
       <c r="G12" s="13">
-        <v>22217845</v>
+        <v>35683202</v>
       </c>
       <c r="H12" s="13">
-        <v>35683202</v>
+        <v>35264670</v>
       </c>
       <c r="I12" s="13">
-        <v>35264670</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>37303699</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
+      <c r="E13" s="11">
+        <v>5835480</v>
       </c>
       <c r="F13" s="11">
-        <v>5835480</v>
+        <v>8564991</v>
       </c>
       <c r="G13" s="11">
-        <v>8564991</v>
+        <v>8084907</v>
       </c>
       <c r="H13" s="11">
-        <v>8084907</v>
+        <v>9080883</v>
       </c>
       <c r="I13" s="11">
-        <v>9080883</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14304078</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
-        <v>0</v>
+        <v>25980888</v>
       </c>
       <c r="F14" s="15">
-        <v>25980888</v>
+        <v>44180453</v>
       </c>
       <c r="G14" s="15">
-        <v>44180453</v>
+        <v>58859249</v>
       </c>
       <c r="H14" s="15">
-        <v>58859249</v>
+        <v>57637482</v>
       </c>
       <c r="I14" s="15">
-        <v>57637482</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>66999226</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -879,7 +879,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
@@ -887,95 +887,95 @@
         <v>12</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="11">
+        <v>148581</v>
+      </c>
+      <c r="F16" s="11">
+        <v>308345</v>
+      </c>
+      <c r="G16" s="11">
+        <v>321412</v>
+      </c>
+      <c r="H16" s="11">
+        <v>360972</v>
+      </c>
+      <c r="I16" s="11">
+        <v>373606</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F16" s="11">
-        <v>148581</v>
-      </c>
-      <c r="G16" s="11">
-        <v>308345</v>
-      </c>
-      <c r="H16" s="11">
-        <v>321412</v>
-      </c>
-      <c r="I16" s="11">
-        <v>360972</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="13" t="s">
-        <v>13</v>
+      <c r="E17" s="13">
+        <v>125980</v>
       </c>
       <c r="F17" s="13">
-        <v>125980</v>
+        <v>602888</v>
       </c>
       <c r="G17" s="13">
-        <v>602888</v>
+        <v>419972</v>
       </c>
       <c r="H17" s="13">
-        <v>419972</v>
+        <v>486528</v>
       </c>
       <c r="I17" s="13">
-        <v>486528</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>304830</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
-        <v>13</v>
+      <c r="E18" s="11">
+        <v>80457</v>
       </c>
       <c r="F18" s="11">
-        <v>80457</v>
+        <v>171291</v>
       </c>
       <c r="G18" s="11">
-        <v>171291</v>
+        <v>78650</v>
       </c>
       <c r="H18" s="11">
-        <v>78650</v>
+        <v>47843</v>
       </c>
       <c r="I18" s="11">
-        <v>47843</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>87128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
-        <v>0</v>
+        <v>355018</v>
       </c>
       <c r="F19" s="15">
-        <v>355018</v>
+        <v>1082524</v>
       </c>
       <c r="G19" s="15">
-        <v>1082524</v>
+        <v>820034</v>
       </c>
       <c r="H19" s="15">
-        <v>820034</v>
+        <v>895343</v>
       </c>
       <c r="I19" s="15">
-        <v>895343</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>765564</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -985,9 +985,9 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -1007,75 +1007,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="15">
-        <v>0</v>
-      </c>
       <c r="H22" s="15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="19" t="s">
-        <v>13</v>
+      <c r="E23" s="19">
+        <v>0</v>
       </c>
       <c r="F23" s="19">
         <v>0</v>
       </c>
-      <c r="G23" s="19">
-        <v>0</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>13</v>
+      <c r="G23" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0</v>
       </c>
       <c r="I23" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15">
-        <v>0</v>
+        <v>26335906</v>
       </c>
       <c r="F24" s="15">
-        <v>26335906</v>
+        <v>45262977</v>
       </c>
       <c r="G24" s="15">
-        <v>45262977</v>
+        <v>59679283</v>
       </c>
       <c r="H24" s="15">
-        <v>59679283</v>
+        <v>58532825</v>
       </c>
       <c r="I24" s="15">
-        <v>58532825</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>67764790</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1085,7 +1085,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1095,7 +1095,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1105,7 +1105,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>25</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1137,7 +1137,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>26</v>
       </c>
@@ -1149,7 +1149,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>11</v>
       </c>
@@ -1157,93 +1157,93 @@
         <v>27</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="11">
+        <v>1342759</v>
+      </c>
+      <c r="F31" s="11">
+        <v>2237191</v>
+      </c>
+      <c r="G31" s="11">
+        <v>3411180</v>
+      </c>
+      <c r="H31" s="11">
+        <v>4131558</v>
+      </c>
+      <c r="I31" s="11">
+        <v>4939861</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F31" s="11">
-        <v>1342759</v>
-      </c>
-      <c r="G31" s="11">
-        <v>2237191</v>
-      </c>
-      <c r="H31" s="11">
-        <v>3411180</v>
-      </c>
-      <c r="I31" s="11">
-        <v>4131558</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="13" t="s">
-        <v>13</v>
+      <c r="E32" s="13">
+        <v>872736</v>
       </c>
       <c r="F32" s="13">
-        <v>872736</v>
+        <v>2524271</v>
       </c>
       <c r="G32" s="13">
-        <v>2524271</v>
+        <v>6585332</v>
       </c>
       <c r="H32" s="13">
-        <v>6585332</v>
+        <v>8668857</v>
       </c>
       <c r="I32" s="13">
-        <v>8668857</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13795220</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>13</v>
+      <c r="E33" s="11">
+        <v>747315</v>
       </c>
       <c r="F33" s="11">
-        <v>747315</v>
+        <v>1729287</v>
       </c>
       <c r="G33" s="11">
-        <v>1729287</v>
+        <v>2481831</v>
       </c>
       <c r="H33" s="11">
-        <v>2481831</v>
+        <v>4208148</v>
       </c>
       <c r="I33" s="11">
-        <v>4208148</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8266476</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15">
-        <v>0</v>
+        <v>2962810</v>
       </c>
       <c r="F34" s="15">
-        <v>2962810</v>
+        <v>6490749</v>
       </c>
       <c r="G34" s="15">
-        <v>6490749</v>
+        <v>12478343</v>
       </c>
       <c r="H34" s="15">
-        <v>12478343</v>
+        <v>17008563</v>
       </c>
       <c r="I34" s="15">
-        <v>17008563</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27001557</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>28</v>
       </c>
@@ -1255,7 +1255,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>11</v>
       </c>
@@ -1263,93 +1263,93 @@
         <v>27</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="11">
+        <v>16904</v>
+      </c>
+      <c r="F36" s="11">
+        <v>30224</v>
+      </c>
+      <c r="G36" s="11">
+        <v>59960</v>
+      </c>
+      <c r="H36" s="11">
+        <v>80262</v>
+      </c>
+      <c r="I36" s="11">
+        <v>134645</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F36" s="11">
-        <v>16904</v>
-      </c>
-      <c r="G36" s="11">
-        <v>30224</v>
-      </c>
-      <c r="H36" s="11">
-        <v>59960</v>
-      </c>
-      <c r="I36" s="11">
-        <v>80262</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="13" t="s">
-        <v>13</v>
+      <c r="E37" s="13">
+        <v>12302</v>
       </c>
       <c r="F37" s="13">
-        <v>12302</v>
+        <v>23960</v>
       </c>
       <c r="G37" s="13">
-        <v>23960</v>
+        <v>69013</v>
       </c>
       <c r="H37" s="13">
-        <v>69013</v>
+        <v>101181</v>
       </c>
       <c r="I37" s="13">
-        <v>101181</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>97440</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>13</v>
+      <c r="E38" s="11">
+        <v>10995</v>
       </c>
       <c r="F38" s="11">
-        <v>10995</v>
+        <v>22877</v>
       </c>
       <c r="G38" s="11">
-        <v>22877</v>
+        <v>18763</v>
       </c>
       <c r="H38" s="11">
-        <v>18763</v>
+        <v>20103</v>
       </c>
       <c r="I38" s="11">
-        <v>20103</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27085</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>0</v>
+        <v>40201</v>
       </c>
       <c r="F39" s="15">
-        <v>40201</v>
+        <v>77061</v>
       </c>
       <c r="G39" s="15">
-        <v>77061</v>
+        <v>147736</v>
       </c>
       <c r="H39" s="15">
-        <v>147736</v>
+        <v>201546</v>
       </c>
       <c r="I39" s="15">
-        <v>201546</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>259170</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>29</v>
       </c>
@@ -1361,9 +1361,9 @@
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -1383,31 +1383,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
-        <v>13</v>
+      <c r="E42" s="15">
+        <v>0</v>
       </c>
       <c r="F42" s="15">
         <v>0</v>
       </c>
-      <c r="G42" s="15">
-        <v>0</v>
+      <c r="G42" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>23</v>
       </c>
@@ -1415,45 +1415,45 @@
         <v>27</v>
       </c>
       <c r="D43" s="19"/>
-      <c r="E43" s="19" t="s">
-        <v>13</v>
+      <c r="E43" s="19">
+        <v>0</v>
       </c>
       <c r="F43" s="19">
         <v>0</v>
       </c>
-      <c r="G43" s="19">
-        <v>0</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>13</v>
+      <c r="G43" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="19">
+        <v>0</v>
       </c>
       <c r="I43" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15">
-        <v>0</v>
+        <v>3003011</v>
       </c>
       <c r="F44" s="15">
-        <v>3003011</v>
+        <v>6567810</v>
       </c>
       <c r="G44" s="15">
-        <v>6567810</v>
+        <v>12626079</v>
       </c>
       <c r="H44" s="15">
-        <v>12626079</v>
+        <v>17210109</v>
       </c>
       <c r="I44" s="15">
-        <v>17210109</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27260727</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1463,7 +1463,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1473,7 +1473,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1483,7 +1483,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>30</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1515,7 +1515,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>31</v>
       </c>
@@ -1527,7 +1527,7 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>11</v>
       </c>
@@ -1535,71 +1535,71 @@
         <v>32</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="11">
+        <v>122744</v>
+      </c>
+      <c r="F51" s="11">
+        <v>166984</v>
+      </c>
+      <c r="G51" s="11">
+        <v>226039</v>
+      </c>
+      <c r="H51" s="11">
+        <v>310832</v>
+      </c>
+      <c r="I51" s="11">
+        <v>320948</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F51" s="11">
-        <v>122744</v>
-      </c>
-      <c r="G51" s="11">
-        <v>166984</v>
-      </c>
-      <c r="H51" s="11">
-        <v>226039</v>
-      </c>
-      <c r="I51" s="11">
-        <v>310832</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D52" s="13"/>
-      <c r="E52" s="13" t="s">
-        <v>13</v>
+      <c r="E52" s="13">
+        <v>94802</v>
       </c>
       <c r="F52" s="13">
-        <v>94802</v>
+        <v>113615</v>
       </c>
       <c r="G52" s="13">
-        <v>113615</v>
+        <v>184550</v>
       </c>
       <c r="H52" s="13">
-        <v>184550</v>
+        <v>245823</v>
       </c>
       <c r="I52" s="13">
-        <v>245823</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>369808</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
-        <v>13</v>
+      <c r="E53" s="11">
+        <v>128064</v>
       </c>
       <c r="F53" s="11">
-        <v>128064</v>
+        <v>201902</v>
       </c>
       <c r="G53" s="11">
-        <v>201902</v>
+        <v>306971</v>
       </c>
       <c r="H53" s="11">
-        <v>306971</v>
+        <v>463407</v>
       </c>
       <c r="I53" s="11">
-        <v>463407</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>577910</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>33</v>
       </c>
@@ -1611,7 +1611,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>11</v>
       </c>
@@ -1619,71 +1619,71 @@
         <v>32</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="11">
+        <v>113770</v>
+      </c>
+      <c r="F55" s="11">
+        <v>98020</v>
+      </c>
+      <c r="G55" s="11">
+        <v>186552</v>
+      </c>
+      <c r="H55" s="11">
+        <v>222350</v>
+      </c>
+      <c r="I55" s="11">
+        <v>360393</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F55" s="11">
-        <v>113770</v>
-      </c>
-      <c r="G55" s="11">
-        <v>98020</v>
-      </c>
-      <c r="H55" s="11">
-        <v>186552</v>
-      </c>
-      <c r="I55" s="11">
-        <v>222350</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D56" s="13"/>
-      <c r="E56" s="13" t="s">
-        <v>13</v>
+      <c r="E56" s="13">
+        <v>97650</v>
       </c>
       <c r="F56" s="13">
-        <v>97650</v>
+        <v>39742</v>
       </c>
       <c r="G56" s="13">
-        <v>39742</v>
+        <v>164328</v>
       </c>
       <c r="H56" s="13">
-        <v>164328</v>
+        <v>207965</v>
       </c>
       <c r="I56" s="13">
-        <v>207965</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>319654</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
-        <v>13</v>
+      <c r="E57" s="11">
+        <v>136657</v>
       </c>
       <c r="F57" s="11">
-        <v>136657</v>
+        <v>133556</v>
       </c>
       <c r="G57" s="11">
-        <v>133556</v>
+        <v>238563</v>
       </c>
       <c r="H57" s="11">
-        <v>238563</v>
+        <v>420187</v>
       </c>
       <c r="I57" s="11">
-        <v>420187</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>310864</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1693,7 +1693,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1703,7 +1703,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1713,7 +1713,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>34</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1745,7 +1745,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>35</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>11</v>
       </c>
@@ -1765,93 +1765,93 @@
         <v>27</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="11">
+        <v>-721093</v>
+      </c>
+      <c r="F64" s="11">
+        <v>-1106164</v>
+      </c>
+      <c r="G64" s="11">
+        <v>-1537741</v>
+      </c>
+      <c r="H64" s="11">
+        <v>-1877087</v>
+      </c>
+      <c r="I64" s="11">
+        <v>-2910873</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F64" s="11">
-        <v>-721093</v>
-      </c>
-      <c r="G64" s="11">
-        <v>-1106164</v>
-      </c>
-      <c r="H64" s="11">
-        <v>-1537741</v>
-      </c>
-      <c r="I64" s="11">
-        <v>-1877087</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D65" s="13"/>
-      <c r="E65" s="13" t="s">
-        <v>13</v>
+      <c r="E65" s="13">
+        <v>-483731</v>
       </c>
       <c r="F65" s="13">
-        <v>-483731</v>
+        <v>-1195048</v>
       </c>
       <c r="G65" s="13">
-        <v>-1195048</v>
+        <v>-3662237</v>
       </c>
       <c r="H65" s="13">
-        <v>-3662237</v>
+        <v>-5083911</v>
       </c>
       <c r="I65" s="13">
-        <v>-5083911</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-8415730</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>13</v>
+      <c r="E66" s="11">
+        <v>-440779</v>
       </c>
       <c r="F66" s="11">
-        <v>-440779</v>
+        <v>-932639</v>
       </c>
       <c r="G66" s="11">
-        <v>-932639</v>
+        <v>-1192324</v>
       </c>
       <c r="H66" s="11">
-        <v>-1192324</v>
+        <v>-2141615</v>
       </c>
       <c r="I66" s="11">
-        <v>-2141615</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3686539</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
-        <v>0</v>
+        <v>-1645603</v>
       </c>
       <c r="F67" s="15">
-        <v>-1645603</v>
+        <v>-3233851</v>
       </c>
       <c r="G67" s="15">
-        <v>-3233851</v>
+        <v>-6392302</v>
       </c>
       <c r="H67" s="15">
-        <v>-6392302</v>
+        <v>-9102613</v>
       </c>
       <c r="I67" s="15">
-        <v>-9102613</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-15013142</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>37</v>
       </c>
@@ -1863,7 +1863,7 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>11</v>
       </c>
@@ -1871,93 +1871,93 @@
         <v>27</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="11">
+        <v>-9125</v>
+      </c>
+      <c r="F69" s="11">
+        <v>-14953</v>
+      </c>
+      <c r="G69" s="11">
+        <v>-27082</v>
+      </c>
+      <c r="H69" s="11">
+        <v>-36462</v>
+      </c>
+      <c r="I69" s="11">
+        <v>-79395</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F69" s="11">
-        <v>-9125</v>
-      </c>
-      <c r="G69" s="11">
-        <v>-14953</v>
-      </c>
-      <c r="H69" s="11">
-        <v>-27082</v>
-      </c>
-      <c r="I69" s="11">
-        <v>-36462</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="13"/>
-      <c r="E70" s="13" t="s">
-        <v>13</v>
+      <c r="E70" s="13">
+        <v>-6890</v>
       </c>
       <c r="F70" s="13">
-        <v>-6890</v>
+        <v>-11312</v>
       </c>
       <c r="G70" s="13">
-        <v>-11312</v>
+        <v>-37947</v>
       </c>
       <c r="H70" s="13">
-        <v>-37947</v>
+        <v>-59389</v>
       </c>
       <c r="I70" s="13">
-        <v>-59389</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-59460</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="11"/>
-      <c r="E71" s="11" t="s">
-        <v>13</v>
+      <c r="E71" s="11">
+        <v>-6489</v>
       </c>
       <c r="F71" s="11">
-        <v>-6489</v>
+        <v>-12359</v>
       </c>
       <c r="G71" s="11">
-        <v>-12359</v>
+        <v>-10651</v>
       </c>
       <c r="H71" s="11">
-        <v>-10651</v>
+        <v>-10326</v>
       </c>
       <c r="I71" s="11">
-        <v>-10326</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-12062</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
-        <v>0</v>
+        <v>-22504</v>
       </c>
       <c r="F72" s="15">
-        <v>-22504</v>
+        <v>-38624</v>
       </c>
       <c r="G72" s="15">
-        <v>-38624</v>
+        <v>-75680</v>
       </c>
       <c r="H72" s="15">
-        <v>-75680</v>
+        <v>-106177</v>
       </c>
       <c r="I72" s="15">
-        <v>-106177</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-150917</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="16" t="s">
         <v>39</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="18" t="s">
         <v>40</v>
       </c>
@@ -1991,31 +1991,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="15"/>
-      <c r="E75" s="15" t="s">
-        <v>13</v>
+      <c r="E75" s="15">
+        <v>0</v>
       </c>
       <c r="F75" s="15">
         <v>0</v>
       </c>
-      <c r="G75" s="15">
-        <v>0</v>
+      <c r="G75" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
         <v>23</v>
       </c>
@@ -2023,45 +2023,45 @@
         <v>27</v>
       </c>
       <c r="D76" s="19"/>
-      <c r="E76" s="19" t="s">
-        <v>13</v>
+      <c r="E76" s="19">
+        <v>0</v>
       </c>
       <c r="F76" s="19">
         <v>0</v>
       </c>
-      <c r="G76" s="19">
-        <v>0</v>
-      </c>
-      <c r="H76" s="19" t="s">
-        <v>13</v>
+      <c r="G76" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" s="19">
+        <v>0</v>
       </c>
       <c r="I76" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15">
-        <v>0</v>
+        <v>-1668107</v>
       </c>
       <c r="F77" s="15">
-        <v>-1668107</v>
+        <v>-3272475</v>
       </c>
       <c r="G77" s="15">
-        <v>-3272475</v>
+        <v>-6467982</v>
       </c>
       <c r="H77" s="15">
-        <v>-6467982</v>
+        <v>-9208790</v>
       </c>
       <c r="I77" s="15">
-        <v>-9208790</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-15164059</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2071,7 +2071,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2081,7 +2081,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2091,7 +2091,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>41</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2123,7 +2123,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>42</v>
       </c>
@@ -2135,7 +2135,7 @@
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>11</v>
       </c>
@@ -2143,93 +2143,93 @@
         <v>27</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="11">
+        <v>621666</v>
+      </c>
+      <c r="F84" s="11">
+        <v>1131027</v>
+      </c>
+      <c r="G84" s="11">
+        <v>1873439</v>
+      </c>
+      <c r="H84" s="11">
+        <v>2254471</v>
+      </c>
+      <c r="I84" s="11">
+        <v>2028988</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F84" s="11">
-        <v>621666</v>
-      </c>
-      <c r="G84" s="11">
-        <v>1131027</v>
-      </c>
-      <c r="H84" s="11">
-        <v>1873439</v>
-      </c>
-      <c r="I84" s="11">
-        <v>2254471</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D85" s="13"/>
-      <c r="E85" s="13" t="s">
-        <v>13</v>
+      <c r="E85" s="13">
+        <v>389005</v>
       </c>
       <c r="F85" s="13">
-        <v>389005</v>
+        <v>1329223</v>
       </c>
       <c r="G85" s="13">
-        <v>1329223</v>
+        <v>2923095</v>
       </c>
       <c r="H85" s="13">
-        <v>2923095</v>
+        <v>3584946</v>
       </c>
       <c r="I85" s="13">
-        <v>3584946</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5379490</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>13</v>
+      <c r="E86" s="11">
+        <v>306536</v>
       </c>
       <c r="F86" s="11">
-        <v>306536</v>
+        <v>796648</v>
       </c>
       <c r="G86" s="11">
-        <v>796648</v>
+        <v>1289507</v>
       </c>
       <c r="H86" s="11">
-        <v>1289507</v>
+        <v>2066533</v>
       </c>
       <c r="I86" s="11">
-        <v>2066533</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4579937</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
-        <v>0</v>
+        <v>1317207</v>
       </c>
       <c r="F87" s="15">
-        <v>1317207</v>
+        <v>3256898</v>
       </c>
       <c r="G87" s="15">
-        <v>3256898</v>
+        <v>6086041</v>
       </c>
       <c r="H87" s="15">
-        <v>6086041</v>
+        <v>7905950</v>
       </c>
       <c r="I87" s="15">
-        <v>7905950</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11988415</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>44</v>
       </c>
@@ -2241,7 +2241,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>11</v>
       </c>
@@ -2249,93 +2249,93 @@
         <v>27</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="11">
+        <v>7779</v>
+      </c>
+      <c r="F89" s="11">
+        <v>15271</v>
+      </c>
+      <c r="G89" s="11">
+        <v>32878</v>
+      </c>
+      <c r="H89" s="11">
+        <v>43800</v>
+      </c>
+      <c r="I89" s="11">
+        <v>55250</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F89" s="11">
-        <v>7779</v>
-      </c>
-      <c r="G89" s="11">
-        <v>15271</v>
-      </c>
-      <c r="H89" s="11">
-        <v>32878</v>
-      </c>
-      <c r="I89" s="11">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B90" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="13"/>
-      <c r="E90" s="13" t="s">
-        <v>13</v>
+      <c r="E90" s="13">
+        <v>5412</v>
       </c>
       <c r="F90" s="13">
-        <v>5412</v>
+        <v>12648</v>
       </c>
       <c r="G90" s="13">
-        <v>12648</v>
+        <v>31066</v>
       </c>
       <c r="H90" s="13">
-        <v>31066</v>
+        <v>41792</v>
       </c>
       <c r="I90" s="13">
-        <v>41792</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>37980</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="11"/>
-      <c r="E91" s="11" t="s">
-        <v>13</v>
+      <c r="E91" s="11">
+        <v>4506</v>
       </c>
       <c r="F91" s="11">
-        <v>4506</v>
+        <v>10518</v>
       </c>
       <c r="G91" s="11">
-        <v>10518</v>
+        <v>8112</v>
       </c>
       <c r="H91" s="11">
-        <v>8112</v>
+        <v>9777</v>
       </c>
       <c r="I91" s="11">
-        <v>9777</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15023</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15">
-        <v>0</v>
+        <v>17697</v>
       </c>
       <c r="F92" s="15">
-        <v>17697</v>
+        <v>38437</v>
       </c>
       <c r="G92" s="15">
-        <v>38437</v>
+        <v>72056</v>
       </c>
       <c r="H92" s="15">
-        <v>72056</v>
+        <v>95369</v>
       </c>
       <c r="I92" s="15">
-        <v>95369</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>108253</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="16" t="s">
         <v>46</v>
       </c>
@@ -2347,7 +2347,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="18" t="s">
         <v>47</v>
       </c>
@@ -2369,26 +2369,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
-        <v>0</v>
+        <v>1334904</v>
       </c>
       <c r="F95" s="15">
-        <v>1334904</v>
+        <v>3295335</v>
       </c>
       <c r="G95" s="15">
-        <v>3295335</v>
+        <v>6158097</v>
       </c>
       <c r="H95" s="15">
-        <v>6158097</v>
+        <v>8001319</v>
       </c>
       <c r="I95" s="15">
-        <v>8001319</v>
+        <v>12096668</v>
       </c>
     </row>
   </sheetData>
